--- a/Practica5/Ejercicio24.xlsx
+++ b/Practica5/Ejercicio24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Massimo\Desktop\UNLP\2do año\segundo\ISO\Practica5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E70BA0-4CCE-4E96-9AB3-B7CC5F632BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7294D9-43E3-450E-AA14-E3AADACA3226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E6FD231-3B52-47A4-A295-CF2181F47F74}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="42">
   <si>
     <t>A: 1, 2, 1, 7, 2, 7, 3, 2</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>A2M*</t>
+  </si>
+  <si>
+    <t>LRU</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3026B2-A641-46C7-929A-B23402B54803}">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,15 +1494,882 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F18" s="3" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG20" s="5"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
